--- a/data/trans_camb/P25A_6_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_6_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 4,24</t>
+          <t>-7,74; 4,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,11</t>
+          <t>-6,86; 7,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,21</t>
+          <t>-7,27; 8,12</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 2,39</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 2,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 4,11</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>-7,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,68%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>64,26%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,57%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,7 +848,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -777,10 +868,25 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -795,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,14</t>
+          <t>0,0; 11,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -815,10 +921,25 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,92</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -853,10 +974,25 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,12 +1064,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,17 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -951,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,17 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 3,11</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,68</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,2</t>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,77</t>
         </is>
       </c>
     </row>
@@ -989,30 +1170,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,0</t>
+          <t>-5,48; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,83</t>
+          <t>-5,48; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,29</t>
+          <t>-1,88; 4,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 0,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 0,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 2,29</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-53,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-36,73%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-67,44%</t>
+          <t>47,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>39,61%</t>
         </is>
       </c>
     </row>
@@ -1211,6 +1467,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-4,6</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,4</t>
+          <t>-5,42; 7,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 18,03</t>
+          <t>-1,55; 24,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 7,61</t>
+          <t>-0,57; 26,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 4,72</t>
+          <t>-10,27; 7,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,08</t>
+          <t>-17,49; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 8,55</t>
+          <t>-17,49; 0,0</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 5,55</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 14,98</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 13,7</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-12,77%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>141,35%</t>
+          <t>222,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>276,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>65,14%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16,24%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>50,08%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>61,71%</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1660,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,73; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,29; 376,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 884,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-81,1; 461,53</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-84,84; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-6,43</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,67</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 12,39</t>
+          <t>-3,9; 21,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 5,83</t>
+          <t>-8,77; 10,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 3,97</t>
+          <t>-4,72; 21,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 13,05</t>
+          <t>-14,6; 1,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 5,2</t>
+          <t>-17,05; -2,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 7,56</t>
+          <t>-7,51; 14,59</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 7,87</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 2,18</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 14,71</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>188,71%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-25,89%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-30,1%</t>
+          <t>187,58%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-72,4%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-15,7%</t>
+          <t>42,73%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-54,96%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>87,96%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 344,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-85,64; 200,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-82,48; 175,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-89,23; 519,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-59,16; 110,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-72,38; 164,38</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-47,7; 753,06</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,23</t>
+          <t>-0,48; 3,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,23</t>
+          <t>-0,73; 4,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,96</t>
+          <t>-0,07; 5,94</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,25</t>
+          <t>-2,54; 0,73</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,09</t>
+          <t>-2,97; 0,27</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,65</t>
+          <t>-0,96; 3,68</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 1,57</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 1,61</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 3,7</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>142,39%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>110,68%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>210,07%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>-46,41%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>-67,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>52,69%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-8,31%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>103,01%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 194,65</t>
+          <t>-53,68; 920,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 217,51</t>
+          <t>-82,4; 1906,39</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-69,11; 98,98</t>
+          <t>-48,66; 1647,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-68,18; 251,77</t>
+          <t>-90,92; 126,87</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 87,72</t>
+          <t>-100,0; 107,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 133,87</t>
+          <t>-47,73; 420,86</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-59,05; 198,76</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-72,31; 222,32</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; 424,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
